--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_6_5.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_6_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1468669.762538776</v>
+        <v>-1440447.251207003</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17475878.18025491</v>
+        <v>16794960.12241026</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10579153.59790955</v>
+        <v>10601546.16228524</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>272.9165864593353</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>183.9277767577397</v>
       </c>
       <c r="E2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>139.699151091944</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
         <v>14.9510387864824</v>
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>143.5846376952537</v>
       </c>
       <c r="Y4" t="n">
-        <v>35.76239307948303</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>101.1910683582814</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>360.1239201069693</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>97.43713267703507</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
@@ -1069,7 +1069,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1111,16 +1111,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>73.73158169647121</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1136,10 +1136,10 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>417.7886117267014</v>
       </c>
       <c r="F8" t="n">
         <v>23.58875529488432</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>226.7265043118141</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>83.88817050965403</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>13.5144690908967</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1370,25 +1370,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>9.594512188528826</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.8153550780014</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1543,10 +1543,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>46.22530271039795</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1610,16 +1610,16 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629699</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
@@ -1667,13 +1667,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633437</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1780,10 +1780,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>85.55329631630391</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149859</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1822,7 +1822,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>75.86622810093029</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1831,7 +1831,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -1850,7 +1850,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932891</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
@@ -2005,7 +2005,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
@@ -2017,10 +2017,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2059,7 +2059,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>61.23284287475791</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2084,7 +2084,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773011</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
@@ -2141,7 +2141,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>400.8069000430777</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
@@ -2251,13 +2251,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>3.139541480022588</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2378,7 +2378,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>400.8069000430784</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
         <v>414.9510387864824</v>
@@ -3041,7 +3041,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>397.3838530629699</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H32" t="n">
         <v>286.2388530112159</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>173.6647221930499</v>
+        <v>173.6647221930498</v>
       </c>
       <c r="C34" t="n">
-        <v>154.60038406286</v>
+        <v>154.6003840628599</v>
       </c>
       <c r="D34" t="n">
         <v>147.9835025317452</v>
       </c>
       <c r="E34" t="n">
-        <v>151.8247133730228</v>
+        <v>151.8247133730227</v>
       </c>
       <c r="F34" t="n">
-        <v>158.704273159114</v>
+        <v>158.7042731591139</v>
       </c>
       <c r="G34" t="n">
-        <v>147.6996518856833</v>
+        <v>147.6996518856832</v>
       </c>
       <c r="H34" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277818</v>
       </c>
       <c r="I34" t="n">
-        <v>71.53763939432409</v>
+        <v>71.53763939432403</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>4.967932742934515</v>
+        <v>4.967932742934455</v>
       </c>
       <c r="S34" t="n">
-        <v>141.4132446762347</v>
+        <v>141.4132446762359</v>
       </c>
       <c r="T34" t="n">
-        <v>227.184941618582</v>
+        <v>227.1849416185819</v>
       </c>
       <c r="U34" t="n">
-        <v>259.4129604006784</v>
+        <v>259.4129604006783</v>
       </c>
       <c r="V34" t="n">
         <v>267.8502427095265</v>
       </c>
       <c r="W34" t="n">
-        <v>253.0704300308241</v>
+        <v>253.070430030824</v>
       </c>
       <c r="X34" t="n">
         <v>226.7021267811743</v>
       </c>
       <c r="Y34" t="n">
-        <v>208.9097636402855</v>
+        <v>208.9097636402854</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>66.57964473925399</v>
+        <v>66.57964473925398</v>
       </c>
       <c r="T35" t="n">
         <v>201.6308445169444</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>173.6647221930499</v>
+        <v>173.6647221930498</v>
       </c>
       <c r="C37" t="n">
         <v>154.6003840628599</v>
@@ -3433,16 +3433,16 @@
         <v>151.8247133730227</v>
       </c>
       <c r="F37" t="n">
-        <v>158.704273159114</v>
+        <v>158.7042731591139</v>
       </c>
       <c r="G37" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H37" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277818</v>
       </c>
       <c r="I37" t="n">
-        <v>71.53763939432343</v>
+        <v>71.53763939432403</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.967932742934465</v>
+        <v>4.967932742934455</v>
       </c>
       <c r="S37" t="n">
         <v>141.4132446762359</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934465</v>
+        <v>4.967932742934472</v>
       </c>
       <c r="S40" t="n">
         <v>141.4132446762359</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.57964473925399</v>
+        <v>66.57964473925398</v>
       </c>
       <c r="T41" t="n">
         <v>201.6308445169444</v>
@@ -3916,7 +3916,7 @@
         <v>122.2674422277819</v>
       </c>
       <c r="I43" t="n">
-        <v>71.53763939432405</v>
+        <v>71.53763939432403</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.967932742934465</v>
+        <v>4.967932742934462</v>
       </c>
       <c r="S43" t="n">
         <v>141.4132446762359</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.967932742934472</v>
+        <v>4.967932742934465</v>
       </c>
       <c r="S46" t="n">
         <v>141.4132446762359</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>911.1782969336119</v>
+        <v>542.9615250231907</v>
       </c>
       <c r="C2" t="n">
-        <v>635.5049772777177</v>
+        <v>508.859456247018</v>
       </c>
       <c r="D2" t="n">
-        <v>603.6355964925663</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="E2" t="n">
-        <v>175.0539222298346</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H2" t="n">
         <v>33.94366860160834</v>
@@ -4340,13 +4340,13 @@
         <v>453.9965675465116</v>
       </c>
       <c r="N2" t="n">
+        <v>453.9965675465116</v>
+      </c>
+      <c r="O2" t="n">
         <v>687.9235674375537</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>1107.976466382457</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1528.02936532736</v>
       </c>
       <c r="Q2" t="n">
         <v>1528.02936532736</v>
@@ -4355,25 +4355,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="V2" t="n">
-        <v>1334.566480014244</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="W2" t="n">
-        <v>1334.566480014244</v>
+        <v>1392.64927858873</v>
       </c>
       <c r="X2" t="n">
-        <v>1319.464420633959</v>
+        <v>1377.547219208445</v>
       </c>
       <c r="Y2" t="n">
-        <v>911.1782969336119</v>
+        <v>969.2610955080985</v>
       </c>
     </row>
     <row r="3">
@@ -4413,19 +4413,19 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>1580.010651986078</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>1580.010651986078</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>1580.010651986078</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
-        <v>1580.010651986078</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
         <v>1580.010651986078</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>777.6525504900546</v>
+        <v>288.1948928011053</v>
       </c>
       <c r="C4" t="n">
-        <v>605.0908389732796</v>
+        <v>288.1948928011053</v>
       </c>
       <c r="D4" t="n">
-        <v>439.2128461748023</v>
+        <v>288.1948928011053</v>
       </c>
       <c r="E4" t="n">
-        <v>439.2128461748023</v>
+        <v>288.1948928011053</v>
       </c>
       <c r="F4" t="n">
-        <v>262.5057921365585</v>
+        <v>288.1948928011053</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>122.603617826933</v>
       </c>
       <c r="H4" t="n">
         <v>122.603617826933</v>
@@ -4489,19 +4489,19 @@
         <v>120.5233537662982</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="M4" t="n">
-        <v>1181.483761245743</v>
+        <v>540.5762527112014</v>
       </c>
       <c r="N4" t="n">
-        <v>1181.483761245743</v>
+        <v>960.6291516561047</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1380.298400881886</v>
       </c>
       <c r="P4" t="n">
         <v>1528.990655216085</v>
@@ -4510,28 +4510,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1537.942061378414</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1537.942061378414</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>1537.942061378414</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V4" t="n">
-        <v>1250.986553248845</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="W4" t="n">
-        <v>1250.986553248845</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="X4" t="n">
-        <v>1005.594798582257</v>
+        <v>288.1948928011053</v>
       </c>
       <c r="Y4" t="n">
-        <v>969.4711692090418</v>
+        <v>288.1948928011053</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1311.887257547977</v>
+        <v>1318.174009172065</v>
       </c>
       <c r="C5" t="n">
-        <v>1209.674057186077</v>
+        <v>1284.071940395892</v>
       </c>
       <c r="D5" t="n">
-        <v>781.092382923345</v>
+        <v>848.1621555703368</v>
       </c>
       <c r="E5" t="n">
-        <v>751.3580421220443</v>
+        <v>414.387410728632</v>
       </c>
       <c r="F5" t="n">
-        <v>323.4906125312521</v>
+        <v>50.62587526704682</v>
       </c>
       <c r="G5" t="n">
-        <v>323.4906125312521</v>
+        <v>50.62587526704682</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>50.62587526704682</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704682</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>485.8805627199647</v>
       </c>
       <c r="K5" t="n">
-        <v>874.0494664914149</v>
+        <v>562.6504997812806</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>562.6504997812806</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>562.6504997812806</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>562.6504997812806</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1189.145706210985</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1815.64091264069</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2362.139698599284</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.293763352341</v>
       </c>
       <c r="S5" t="n">
-        <v>1613.531556264254</v>
+        <v>2531.293763352341</v>
       </c>
       <c r="T5" t="n">
-        <v>1613.531556264254</v>
+        <v>2531.293763352341</v>
       </c>
       <c r="U5" t="n">
-        <v>1354.309253581271</v>
+        <v>2531.293763352341</v>
       </c>
       <c r="V5" t="n">
-        <v>1354.309253581271</v>
+        <v>2168.676813286168</v>
       </c>
       <c r="W5" t="n">
-        <v>1353.494203032709</v>
+        <v>1763.821358697201</v>
       </c>
       <c r="X5" t="n">
-        <v>1338.392143652423</v>
+        <v>1344.678895276511</v>
       </c>
       <c r="Y5" t="n">
-        <v>1334.146423992481</v>
+        <v>1340.433175616569</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.7976202583396</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>450.3411590949819</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.2508702415352</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>261.1304555684889</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>177.7466171846505</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>92.36152745083436</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704682</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.68954842750442</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.2478733937167</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1027.743079823421</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.95392001944</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.95392001944</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.95392001944</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.95392001944</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.95392001944</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.692858651516</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.865636745856</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.410199194239</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.23155552484</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.895008524809</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.777490586808</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.454736320002</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.587300558882</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>678.1015213381028</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>630.7799396378264</v>
+        <v>889.6656777020951</v>
       </c>
       <c r="C7" t="n">
-        <v>630.7799396378264</v>
+        <v>889.6656777020951</v>
       </c>
       <c r="D7" t="n">
-        <v>464.9019468393491</v>
+        <v>791.2443315636758</v>
       </c>
       <c r="E7" t="n">
-        <v>464.9019468393491</v>
+        <v>621.4863278144131</v>
       </c>
       <c r="F7" t="n">
-        <v>288.1948928011053</v>
+        <v>444.7792737761693</v>
       </c>
       <c r="G7" t="n">
-        <v>122.603617826933</v>
+        <v>279.187998801997</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>139.2858244923715</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704682</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704682</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>325.3843298381824</v>
       </c>
       <c r="L7" t="n">
-        <v>452.1535503695694</v>
+        <v>743.5942116061434</v>
       </c>
       <c r="M7" t="n">
-        <v>872.2064493144727</v>
+        <v>1203.078078787056</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1645.336881944701</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2065.006131170482</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2412.513025140824</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.293763352341</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2509.875942057713</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2350.63457335571</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>2104.755126934165</v>
       </c>
       <c r="U7" t="n">
-        <v>992.2117929153466</v>
+        <v>1826.32212618727</v>
       </c>
       <c r="V7" t="n">
-        <v>705.2562847857771</v>
+        <v>1826.32212618727</v>
       </c>
       <c r="W7" t="n">
-        <v>630.7799396378264</v>
+        <v>1554.295721773562</v>
       </c>
       <c r="X7" t="n">
-        <v>630.7799396378264</v>
+        <v>1308.903967106974</v>
       </c>
       <c r="Y7" t="n">
-        <v>630.7799396378264</v>
+        <v>1081.484296421082</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>153.4764845146214</v>
+        <v>969.2487943945847</v>
       </c>
       <c r="C8" t="n">
-        <v>119.3744157384487</v>
+        <v>935.1467256184121</v>
       </c>
       <c r="D8" t="n">
-        <v>87.50503495329731</v>
+        <v>499.2369407928566</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M8" t="n">
-        <v>687.9235674375537</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N8" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>687.9235674375537</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1477.116202953456</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>1217.893900270473</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V8" t="n">
-        <v>1217.893900270473</v>
+        <v>2223.792002549091</v>
       </c>
       <c r="W8" t="n">
-        <v>813.0384456815061</v>
+        <v>1818.936547960124</v>
       </c>
       <c r="X8" t="n">
-        <v>584.0217746594717</v>
+        <v>1399.794084539435</v>
       </c>
       <c r="Y8" t="n">
-        <v>175.7356509591251</v>
+        <v>991.5079608390885</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1113.00182921349</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>940.4401176967148</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>774.5621248982375</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>604.8041211489747</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>428.0970671107308</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>262.5057921365585</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>308.7021231727439</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>509.954387939391</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>509.954387939391</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>930.0072868842942</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1349.676536110076</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T10" t="n">
-        <v>1697.183430080417</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U10" t="n">
-        <v>1612.44790431309</v>
+        <v>2124.330557968361</v>
       </c>
       <c r="V10" t="n">
-        <v>1612.44790431309</v>
+        <v>1837.375049838791</v>
       </c>
       <c r="W10" t="n">
-        <v>1340.421499899382</v>
+        <v>1565.348645425083</v>
       </c>
       <c r="X10" t="n">
-        <v>1340.421499899382</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>1113.00182921349</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1644.161348549114</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>1634.469922096055</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1198.560137270499</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>1198.560137270499</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>770.6927076797069</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G11" t="n">
-        <v>369.2948763029707</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H11" t="n">
-        <v>80.1647217461869</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I11" t="n">
-        <v>80.1647217461869</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>80.1647217461869</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>80.1647217461869</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>1072.20315335525</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>2036.017989129976</v>
+        <v>2837.977298779171</v>
       </c>
       <c r="N11" t="n">
-        <v>3028.056420739038</v>
+        <v>3963.708282215618</v>
       </c>
       <c r="O11" t="n">
-        <v>4008.236087309345</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="P11" t="n">
-        <v>4008.236087309345</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="Q11" t="n">
-        <v>4008.236087309345</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R11" t="n">
-        <v>4008.236087309345</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S11" t="n">
-        <v>3924.584213493182</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T11" t="n">
-        <v>3924.584213493182</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>3665.361910810198</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>3302.744960744025</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>2897.889506155058</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>2478.747042734369</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2070.460919034022</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>586.3364667374797</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>479.880005574122</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>384.7897167206752</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>290.6693020476289</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>207.2854636637906</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>121.9003739299744</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>80.1647217461869</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>106.2283949066445</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>430.7867198728568</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>430.7867198728568</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>430.7867198728568</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>430.7867198728568</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N12" t="n">
-        <v>430.7867198728568</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O12" t="n">
-        <v>430.7867198728568</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P12" t="n">
-        <v>1085.492766498581</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1626.231705130656</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1743.404483224996</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1679.949045673379</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1549.770402003981</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1373.433855003949</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1174.316337065948</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>988.9935827991421</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>834.1261470380221</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>707.6403678172428</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1159.222882358068</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C13" t="n">
-        <v>986.6611708412933</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D13" t="n">
-        <v>820.783178042816</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E13" t="n">
-        <v>651.0251742935532</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F13" t="n">
-        <v>474.3181202553094</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G13" t="n">
-        <v>308.7268452811371</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H13" t="n">
-        <v>168.8246709715116</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
-        <v>80.1647217461869</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>166.7444069108767</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>441.5028614820123</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>859.7127432499702</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1319.196610430883</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1761.455413588528</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2181.124662814309</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2528.631556784651</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2696.824331648983</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2675.406510354355</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2675.406510354355</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T13" t="n">
-        <v>2429.527063932811</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U13" t="n">
-        <v>2382.834838972813</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V13" t="n">
-        <v>2095.879330843243</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W13" t="n">
-        <v>1823.852926429535</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X13" t="n">
-        <v>1578.461171762947</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y13" t="n">
-        <v>1351.041501077055</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C14" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D14" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E14" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G14" t="n">
         <v>391.8077842004234</v>
@@ -5285,7 +5285,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N14" t="n">
         <v>2588.899621423628</v>
@@ -5321,7 +5321,7 @@
         <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="15">
@@ -5358,19 +5358,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
         <v>1107.588885023173</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1039.17434837428</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C16" t="n">
-        <v>866.6126368575054</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D16" t="n">
-        <v>700.7346440590281</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E16" t="n">
-        <v>530.9766403097653</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F16" t="n">
-        <v>354.2695862715216</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G16" t="n">
-        <v>188.6783112973492</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H16" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
         <v>102.2608402707796</v>
@@ -5461,25 +5461,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2559.679081471573</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T16" t="n">
-        <v>2313.799635050028</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U16" t="n">
-        <v>2035.366634303133</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V16" t="n">
-        <v>1748.411126173564</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W16" t="n">
-        <v>1476.384721759855</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X16" t="n">
-        <v>1230.992967093268</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y16" t="n">
-        <v>1230.992967093268</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5489,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
         <v>1221.073045167952</v>
@@ -5519,13 +5519,13 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2412.031452783383</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>3569.079287993934</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N17" t="n">
-        <v>3569.079287993934</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
         <v>3569.079287993934</v>
@@ -5552,13 +5552,13 @@
         <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5595,19 +5595,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P18" t="n">
         <v>1107.588885023173</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1015.441008084184</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>842.8792965674086</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5695,28 +5695,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1952.097456569358</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1680.07105215565</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1434.679297489062</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1207.259626803171</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
         <v>1654.847790009657</v>
@@ -5750,28 +5750,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
         <v>5113.042013538981</v>
@@ -5792,10 +5792,10 @@
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>451.897152078511</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>282.1391483292483</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>105.4320942910045</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>105.4320942910045</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>105.4320942910045</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5932,28 +5932,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5975,64 +5975,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436397</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236976</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681876</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934735</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2446.925785934735</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.89962142363</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993937</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.389162827333</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785928</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
-        <v>5113.042013538984</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S23" t="n">
-        <v>5029.390139722821</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T23" t="n">
-        <v>4809.32291259586</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U23" t="n">
-        <v>4550.100609912876</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V23" t="n">
-        <v>4187.483659846703</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257734</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
-        <v>3363.485741837045</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6042,10 +6042,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>608.4325852620725</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C24" t="n">
-        <v>501.9761240987148</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D24" t="n">
         <v>406.885835245268</v>
@@ -6057,13 +6057,13 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G24" t="n">
-        <v>143.9964924545672</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H24" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>128.3245134312373</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
         <v>452.8828383974496</v>
@@ -6090,16 +6090,16 @@
         <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
-        <v>1765.500601749589</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S24" t="n">
-        <v>1702.045164197972</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T24" t="n">
         <v>1571.866520528573</v>
       </c>
       <c r="U24" t="n">
-        <v>1395.529973528542</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V24" t="n">
         <v>1196.412455590541</v>
@@ -6108,10 +6108,10 @@
         <v>1011.089701323735</v>
       </c>
       <c r="X24" t="n">
-        <v>856.2222655626149</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y24" t="n">
-        <v>729.7364863418356</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="25">
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.756877347711</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309359</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324586</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
         <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J25" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K25" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
-        <v>881.8088617745663</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M25" t="n">
         <v>1341.292728955479</v>
@@ -6212,13 +6212,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6233,7 +6233,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6461,28 +6461,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>3007.131363532228</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N29" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C32" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D32" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E32" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6707,43 +6707,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S32" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T32" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U32" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V32" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6780,19 +6780,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
         <v>1107.588885023173</v>
@@ -6835,19 +6835,19 @@
         <v>1066.521048992528</v>
       </c>
       <c r="C34" t="n">
-        <v>910.3590448886295</v>
+        <v>910.359044888629</v>
       </c>
       <c r="D34" t="n">
-        <v>760.8807595030282</v>
+        <v>760.8807595030279</v>
       </c>
       <c r="E34" t="n">
-        <v>607.5224631666415</v>
+        <v>607.5224631666413</v>
       </c>
       <c r="F34" t="n">
-        <v>447.2151165412739</v>
+        <v>447.2151165412737</v>
       </c>
       <c r="G34" t="n">
-        <v>298.0235489799776</v>
+        <v>298.0235489799775</v>
       </c>
       <c r="H34" t="n">
         <v>174.5210820832282</v>
@@ -6856,13 +6856,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J34" t="n">
-        <v>204.9138786708293</v>
+        <v>204.9138786708294</v>
       </c>
       <c r="K34" t="n">
-        <v>495.7456864773248</v>
+        <v>495.7456864773249</v>
       </c>
       <c r="L34" t="n">
-        <v>930.0289214806456</v>
+        <v>930.0289214806459</v>
       </c>
       <c r="M34" t="n">
         <v>1405.586141896919</v>
@@ -6871,37 +6871,37 @@
         <v>1863.918298289923</v>
       </c>
       <c r="O34" t="n">
-        <v>2299.660900751064</v>
+        <v>2299.660900751065</v>
       </c>
       <c r="P34" t="n">
-        <v>2663.241147956766</v>
+        <v>2663.241147956767</v>
       </c>
       <c r="Q34" t="n">
-        <v>2847.507276056458</v>
+        <v>2847.507276056459</v>
       </c>
       <c r="R34" t="n">
         <v>2842.489162174706</v>
       </c>
       <c r="S34" t="n">
-        <v>2699.64750088558</v>
+        <v>2699.647500885579</v>
       </c>
       <c r="T34" t="n">
-        <v>2470.167761876911</v>
+        <v>2470.16776187691</v>
       </c>
       <c r="U34" t="n">
-        <v>2208.134468542893</v>
+        <v>2208.134468542892</v>
       </c>
       <c r="V34" t="n">
-        <v>1937.578667826199</v>
+        <v>1937.578667826198</v>
       </c>
       <c r="W34" t="n">
-        <v>1681.951970825367</v>
+        <v>1681.951970825366</v>
       </c>
       <c r="X34" t="n">
         <v>1452.959923571655</v>
       </c>
       <c r="Y34" t="n">
-        <v>1241.93996029864</v>
+        <v>1241.939960298639</v>
       </c>
     </row>
     <row r="35">
@@ -6929,10 +6929,10 @@
         <v>370.2971508197255</v>
       </c>
       <c r="H35" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I35" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J35" t="n">
         <v>532.8213911287357</v>
@@ -6944,40 +6944,40 @@
         <v>2442.231649339773</v>
       </c>
       <c r="M35" t="n">
-        <v>2523.346856428596</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N35" t="n">
-        <v>2523.346856428596</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O35" t="n">
-        <v>3503.526522998903</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P35" t="n">
-        <v>4331.836397832299</v>
+        <v>4250.721190743476</v>
       </c>
       <c r="Q35" t="n">
-        <v>4878.335183790893</v>
+        <v>4797.21997670207</v>
       </c>
       <c r="R35" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S35" t="n">
         <v>4811.083017387606</v>
       </c>
       <c r="T35" t="n">
-        <v>4607.415497673521</v>
+        <v>4607.41549767352</v>
       </c>
       <c r="U35" t="n">
-        <v>4364.592902403414</v>
+        <v>4364.592902403413</v>
       </c>
       <c r="V35" t="n">
         <v>4018.375659750116</v>
       </c>
       <c r="W35" t="n">
-        <v>3629.919912574026</v>
+        <v>3629.919912574025</v>
       </c>
       <c r="X35" t="n">
-        <v>3227.177156566213</v>
+        <v>3227.177156566212</v>
       </c>
       <c r="Y35" t="n">
         <v>2835.290740278742</v>
@@ -7008,10 +7008,10 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H36" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I36" t="n">
-        <v>123.6303768362755</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J36" t="n">
         <v>448.1887018024878</v>
@@ -7072,25 +7072,25 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C37" t="n">
-        <v>905.6649082936667</v>
+        <v>905.6649082936673</v>
       </c>
       <c r="D37" t="n">
-        <v>756.1866229080656</v>
+        <v>756.1866229080661</v>
       </c>
       <c r="E37" t="n">
-        <v>602.828326571679</v>
+        <v>602.8283265716793</v>
       </c>
       <c r="F37" t="n">
-        <v>442.5209799463113</v>
+        <v>442.5209799463119</v>
       </c>
       <c r="G37" t="n">
-        <v>293.3294123850151</v>
+        <v>293.3294123850158</v>
       </c>
       <c r="H37" t="n">
-        <v>169.8269454882658</v>
+        <v>169.8269454882664</v>
       </c>
       <c r="I37" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J37" t="n">
         <v>200.2197420758676</v>
@@ -7111,13 +7111,13 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P37" t="n">
-        <v>2658.547011361804</v>
+        <v>2658.547011361805</v>
       </c>
       <c r="Q37" t="n">
-        <v>2842.813139461496</v>
+        <v>2842.813139461497</v>
       </c>
       <c r="R37" t="n">
-        <v>2837.795025579744</v>
+        <v>2837.795025579745</v>
       </c>
       <c r="S37" t="n">
         <v>2694.953364290617</v>
@@ -7126,7 +7126,7 @@
         <v>2465.473625281948</v>
       </c>
       <c r="U37" t="n">
-        <v>2203.440331947929</v>
+        <v>2203.44033194793</v>
       </c>
       <c r="V37" t="n">
         <v>1932.884531231236</v>
@@ -7135,7 +7135,7 @@
         <v>1677.257834230404</v>
       </c>
       <c r="X37" t="n">
-        <v>1448.265786976692</v>
+        <v>1448.265786976693</v>
       </c>
       <c r="Y37" t="n">
         <v>1237.245823703677</v>
@@ -7151,13 +7151,13 @@
         <v>2425.39087720671</v>
       </c>
       <c r="C38" t="n">
-        <v>2003.648111803009</v>
+        <v>2003.64811180301</v>
       </c>
       <c r="D38" t="n">
         <v>1584.13803439033</v>
       </c>
       <c r="E38" t="n">
-        <v>1166.762996961501</v>
+        <v>1166.762996961502</v>
       </c>
       <c r="F38" t="n">
         <v>755.2952747835855</v>
@@ -7166,40 +7166,40 @@
         <v>370.2971508197255</v>
       </c>
       <c r="H38" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I38" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J38" t="n">
-        <v>444.7825334645019</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="K38" t="n">
-        <v>1279.13282542268</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="L38" t="n">
-        <v>2354.192791675539</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M38" t="n">
-        <v>2354.192791675539</v>
+        <v>2523.346856428594</v>
       </c>
       <c r="N38" t="n">
-        <v>2354.192791675539</v>
+        <v>2523.346856428594</v>
       </c>
       <c r="O38" t="n">
-        <v>3334.372458245845</v>
+        <v>3503.526522998901</v>
       </c>
       <c r="P38" t="n">
-        <v>4162.682333079241</v>
+        <v>4331.836397832297</v>
       </c>
       <c r="Q38" t="n">
-        <v>4709.181119037836</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="R38" t="n">
-        <v>4878.335183790892</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="S38" t="n">
-        <v>4811.083017387606</v>
+        <v>4811.083017387605</v>
       </c>
       <c r="T38" t="n">
         <v>4607.41549767352</v>
@@ -7211,13 +7211,13 @@
         <v>4018.375659750116</v>
       </c>
       <c r="W38" t="n">
-        <v>3629.919912574025</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X38" t="n">
         <v>3227.177156566212</v>
       </c>
       <c r="Y38" t="n">
-        <v>2835.290740278741</v>
+        <v>2835.290740278742</v>
       </c>
     </row>
     <row r="39">
@@ -7245,13 +7245,13 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H39" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I39" t="n">
         <v>123.6303768362754</v>
       </c>
       <c r="J39" t="n">
-        <v>448.1887018024878</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="K39" t="n">
         <v>1102.894748428211</v>
@@ -7309,25 +7309,25 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936669</v>
+        <v>905.6649082936667</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080658</v>
+        <v>756.1866229080654</v>
       </c>
       <c r="E40" t="n">
-        <v>602.8283265716791</v>
+        <v>602.8283265716789</v>
       </c>
       <c r="F40" t="n">
-        <v>442.5209799463116</v>
+        <v>442.5209799463112</v>
       </c>
       <c r="G40" t="n">
-        <v>293.3294123850155</v>
+        <v>293.3294123850151</v>
       </c>
       <c r="H40" t="n">
         <v>169.8269454882661</v>
       </c>
       <c r="I40" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J40" t="n">
         <v>200.2197420758676</v>
@@ -7348,13 +7348,13 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P40" t="n">
-        <v>2658.547011361805</v>
+        <v>2658.547011361804</v>
       </c>
       <c r="Q40" t="n">
-        <v>2842.813139461497</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R40" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S40" t="n">
         <v>2694.953364290617</v>
@@ -7363,13 +7363,13 @@
         <v>2465.473625281948</v>
       </c>
       <c r="U40" t="n">
-        <v>2203.44033194793</v>
+        <v>2203.440331947929</v>
       </c>
       <c r="V40" t="n">
         <v>1932.884531231236</v>
       </c>
       <c r="W40" t="n">
-        <v>1677.257834230404</v>
+        <v>1677.257834230403</v>
       </c>
       <c r="X40" t="n">
         <v>1448.265786976692</v>
@@ -7388,7 +7388,7 @@
         <v>2425.39087720671</v>
       </c>
       <c r="C41" t="n">
-        <v>2003.64811180301</v>
+        <v>2003.648111803009</v>
       </c>
       <c r="D41" t="n">
         <v>1584.13803439033</v>
@@ -7397,16 +7397,16 @@
         <v>1166.762996961501</v>
       </c>
       <c r="F41" t="n">
-        <v>755.2952747835852</v>
+        <v>755.2952747835848</v>
       </c>
       <c r="G41" t="n">
-        <v>370.2971508197255</v>
+        <v>370.2971508197248</v>
       </c>
       <c r="H41" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581717</v>
       </c>
       <c r="I41" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J41" t="n">
         <v>532.8213911287357</v>
@@ -7418,22 +7418,22 @@
         <v>2442.231649339773</v>
       </c>
       <c r="M41" t="n">
-        <v>3599.279484550324</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N41" t="n">
-        <v>3599.279484550324</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O41" t="n">
-        <v>3599.279484550324</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P41" t="n">
-        <v>4162.682333079241</v>
+        <v>4250.721190743476</v>
       </c>
       <c r="Q41" t="n">
-        <v>4709.181119037836</v>
+        <v>4797.21997670207</v>
       </c>
       <c r="R41" t="n">
-        <v>4878.335183790892</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="S41" t="n">
         <v>4811.083017387605</v>
@@ -7482,13 +7482,13 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H42" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I42" t="n">
         <v>123.6303768362754</v>
       </c>
       <c r="J42" t="n">
-        <v>448.1887018024878</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="K42" t="n">
         <v>1102.894748428211</v>
@@ -7546,13 +7546,13 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936674</v>
+        <v>905.6649082936673</v>
       </c>
       <c r="D43" t="n">
         <v>756.1866229080662</v>
       </c>
       <c r="E43" t="n">
-        <v>602.8283265716796</v>
+        <v>602.8283265716797</v>
       </c>
       <c r="F43" t="n">
         <v>442.520979946312</v>
@@ -7564,22 +7564,22 @@
         <v>169.8269454882664</v>
       </c>
       <c r="I43" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J43" t="n">
-        <v>200.2197420758679</v>
+        <v>200.2197420758676</v>
       </c>
       <c r="K43" t="n">
-        <v>491.0515498823634</v>
+        <v>491.0515498823631</v>
       </c>
       <c r="L43" t="n">
-        <v>925.3347848856844</v>
+        <v>925.334784885684</v>
       </c>
       <c r="M43" t="n">
         <v>1400.892005301957</v>
       </c>
       <c r="N43" t="n">
-        <v>1859.224161694962</v>
+        <v>1859.224161694961</v>
       </c>
       <c r="O43" t="n">
         <v>2294.966764156103</v>
@@ -7591,7 +7591,7 @@
         <v>2842.813139461497</v>
       </c>
       <c r="R43" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S43" t="n">
         <v>2694.953364290617</v>
@@ -7603,7 +7603,7 @@
         <v>2203.44033194793</v>
       </c>
       <c r="V43" t="n">
-        <v>1932.884531231236</v>
+        <v>1932.884531231237</v>
       </c>
       <c r="W43" t="n">
         <v>1677.257834230404</v>
@@ -7640,10 +7640,10 @@
         <v>370.2971508197255</v>
       </c>
       <c r="H44" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I44" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J44" t="n">
         <v>532.8213911287357</v>
@@ -7655,25 +7655,25 @@
         <v>2442.231649339773</v>
       </c>
       <c r="M44" t="n">
-        <v>2523.346856428595</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N44" t="n">
-        <v>2523.346856428595</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O44" t="n">
-        <v>3503.526522998902</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P44" t="n">
-        <v>4331.836397832298</v>
+        <v>4250.721190743476</v>
       </c>
       <c r="Q44" t="n">
-        <v>4878.335183790892</v>
+        <v>4797.21997670207</v>
       </c>
       <c r="R44" t="n">
-        <v>4878.335183790892</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="S44" t="n">
-        <v>4811.083017387606</v>
+        <v>4811.083017387605</v>
       </c>
       <c r="T44" t="n">
         <v>4607.41549767352</v>
@@ -7719,34 +7719,34 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H45" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I45" t="n">
-        <v>97.56670367581785</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J45" t="n">
-        <v>97.56670367581785</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="K45" t="n">
-        <v>97.56670367581785</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="L45" t="n">
-        <v>97.56670367581785</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="M45" t="n">
-        <v>553.418507166381</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="N45" t="n">
-        <v>1760.806465154627</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="O45" t="n">
-        <v>1760.806465154627</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="P45" t="n">
-        <v>1760.806465154627</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="Q45" t="n">
-        <v>1760.806465154627</v>
+        <v>1643.633687060287</v>
       </c>
       <c r="R45" t="n">
         <v>1760.806465154627</v>
@@ -7801,16 +7801,16 @@
         <v>169.8269454882664</v>
       </c>
       <c r="I46" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J46" t="n">
-        <v>200.2197420758674</v>
+        <v>200.2197420758676</v>
       </c>
       <c r="K46" t="n">
-        <v>491.0515498823628</v>
+        <v>491.0515498823631</v>
       </c>
       <c r="L46" t="n">
-        <v>925.3347848856838</v>
+        <v>925.334784885684</v>
       </c>
       <c r="M46" t="n">
         <v>1400.892005301957</v>
@@ -7825,10 +7825,10 @@
         <v>2658.547011361804</v>
       </c>
       <c r="Q46" t="n">
-        <v>2842.813139461497</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R46" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S46" t="n">
         <v>2694.953364290617</v>
@@ -7840,10 +7840,10 @@
         <v>2203.44033194793</v>
       </c>
       <c r="V46" t="n">
-        <v>1932.884531231237</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W46" t="n">
-        <v>1677.257834230405</v>
+        <v>1677.257834230404</v>
       </c>
       <c r="X46" t="n">
         <v>1448.265786976693</v>
@@ -7988,16 +7988,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="O2" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8061,10 +8061,10 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
-        <v>358.9284720888816</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8137,22 +8137,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>371.7091627680287</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>150.1941962971705</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821538</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>77.54539097102617</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>632.8234408380853</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>632.8234408380854</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>632.8234408380853</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>28.49579817779727</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8374,25 +8374,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>119.9805436479969</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -8459,19 +8459,19 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,7 +8532,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,7 +8541,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,19 +8608,19 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>203.2851159259061</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
@@ -8629,7 +8629,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,19 +8687,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>1002.059021827336</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>973.5503391663901</v>
+        <v>395.0015281256929</v>
       </c>
       <c r="N11" t="n">
-        <v>1002.059021827336</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8933,10 +8933,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N14" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9006,22 +9006,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9167,16 +9167,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>1050.67235666819</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458549</v>
@@ -9243,22 +9243,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
@@ -9407,22 +9407,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9644,10 +9644,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352478</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9717,7 +9717,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9881,10 +9881,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10355,10 +10355,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10428,7 +10428,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10592,7 +10592,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>81.9345526149732</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>81.93455261497184</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>350.7230603926101</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
@@ -10829,7 +10829,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>81.93455261497138</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,7 +10902,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -11066,22 +11066,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>569.0937863928461</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>81.93455261497093</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>81.93455261497229</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>81.93455261497093</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,10 +11370,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11382,22 +11382,22 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>460.4563671621851</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>1219.583795947723</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>160.8444616290756</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>247.6229102195602</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>221.7234833597481</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22604,10 +22604,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -23258,13 +23258,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>424.1665358998821</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>229.4233680290278</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-7.978386276044685e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>52.94985625022531</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>208.2197249473435</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>3.146865729424327</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>222.8531101735159</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>84.63380825304883</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>832532.2398139271</v>
+        <v>693884.2113235457</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>908032.2743940208</v>
+        <v>920863.4189268135</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>908032.2743940208</v>
+        <v>922998.0768632216</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>785070.6483423914</v>
+        <v>936776.8133014578</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>936776.8133014576</v>
+        <v>936776.8133014579</v>
       </c>
     </row>
     <row r="7">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>61210.72001860154</v>
+        <v>50545.48705780298</v>
       </c>
       <c r="C2" t="n">
         <v>67018.41498630104</v>
@@ -26320,19 +26320,19 @@
         <v>67018.41498630105</v>
       </c>
       <c r="E2" t="n">
-        <v>55191.96505637049</v>
+        <v>65857.19801716902</v>
       </c>
       <c r="F2" t="n">
-        <v>65857.19801716902</v>
+        <v>65857.19801716905</v>
       </c>
       <c r="G2" t="n">
         <v>65857.19801716902</v>
       </c>
       <c r="H2" t="n">
+        <v>65857.19801716904</v>
+      </c>
+      <c r="I2" t="n">
         <v>65857.19801716902</v>
-      </c>
-      <c r="I2" t="n">
-        <v>65857.19801716904</v>
       </c>
       <c r="J2" t="n">
         <v>65857.19801716902</v>
@@ -26341,16 +26341,16 @@
         <v>65857.19801716902</v>
       </c>
       <c r="L2" t="n">
-        <v>67018.41498630107</v>
+        <v>67018.41498630108</v>
       </c>
       <c r="M2" t="n">
-        <v>67018.41498630107</v>
+        <v>67018.41498630105</v>
       </c>
       <c r="N2" t="n">
-        <v>67018.41498630107</v>
+        <v>67018.41498630105</v>
       </c>
       <c r="O2" t="n">
-        <v>67018.41498630107</v>
+        <v>67018.41498630105</v>
       </c>
       <c r="P2" t="n">
         <v>67018.41498630108</v>
@@ -26366,16 +26366,16 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>67369.14939246228</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>10776.30320106417</v>
       </c>
       <c r="E3" t="n">
-        <v>172507.3700725246</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
-        <v>79138.90570471821</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.46534499</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53668.32706338216</v>
       </c>
       <c r="L3" t="n">
-        <v>12988.5682709979</v>
+        <v>21768.74196143514</v>
       </c>
       <c r="M3" t="n">
-        <v>129358.4213978838</v>
+        <v>137577.700737852</v>
       </c>
       <c r="N3" t="n">
-        <v>67649.20027341149</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>3.577411164236576e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179442.2442618196</v>
+        <v>130743.3336435126</v>
       </c>
       <c r="C4" t="n">
-        <v>205960.9728418668</v>
+        <v>171068.0601277516</v>
       </c>
       <c r="D4" t="n">
-        <v>205960.9728418668</v>
+        <v>165263.0882595584</v>
       </c>
       <c r="E4" t="n">
-        <v>68250.85363567084</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="F4" t="n">
+        <v>81439.57146904283</v>
+      </c>
+      <c r="G4" t="n">
         <v>81439.57146904277</v>
       </c>
-      <c r="G4" t="n">
-        <v>81439.57146904283</v>
-      </c>
       <c r="H4" t="n">
-        <v>81439.57146904281</v>
+        <v>81439.5714690428</v>
       </c>
       <c r="I4" t="n">
         <v>81439.57146904283</v>
       </c>
       <c r="J4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="K4" t="n">
         <v>81439.57146904283</v>
       </c>
       <c r="L4" t="n">
-        <v>86781.92928567606</v>
+        <v>86781.9292856761</v>
       </c>
       <c r="M4" t="n">
-        <v>94325.77438500368</v>
+        <v>94325.77438500366</v>
       </c>
       <c r="N4" t="n">
-        <v>94325.77438500368</v>
+        <v>94325.77438500365</v>
       </c>
       <c r="O4" t="n">
-        <v>94325.77438500366</v>
+        <v>94325.77438500365</v>
       </c>
       <c r="P4" t="n">
         <v>94325.77438500365</v>
@@ -26470,13 +26470,13 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>72103.26520295558</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>60925.18852710203</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
         <v>77718.23860579252</v>
@@ -26488,10 +26488,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.23860579256</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="K5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>79083.15853826067</v>
       </c>
       <c r="M5" t="n">
-        <v>75515.61472608973</v>
+        <v>75515.61472608971</v>
       </c>
       <c r="N5" t="n">
-        <v>75515.61472608971</v>
+        <v>75515.6147260897</v>
       </c>
       <c r="O5" t="n">
-        <v>75515.61472608971</v>
+        <v>75515.6147260897</v>
       </c>
       <c r="P5" t="n">
-        <v>75515.61472608971</v>
+        <v>75515.6147260897</v>
       </c>
     </row>
     <row r="6">
@@ -26519,43 +26519,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-319847.6130401504</v>
+        <v>-282143.3939412118</v>
       </c>
       <c r="C6" t="n">
-        <v>-198367.345992788</v>
+        <v>-243522.0597368684</v>
       </c>
       <c r="D6" t="n">
-        <v>-198367.345992788</v>
+        <v>-183233.5010360793</v>
       </c>
       <c r="E6" t="n">
-        <v>-246491.447178927</v>
+        <v>-275678.9456180988</v>
       </c>
       <c r="F6" t="n">
-        <v>-172439.5177623845</v>
+        <v>-93323.83639704893</v>
       </c>
       <c r="G6" t="n">
-        <v>-93300.61205766632</v>
+        <v>-93323.83639704886</v>
       </c>
       <c r="H6" t="n">
-        <v>-93300.61205766627</v>
+        <v>-93323.83639704892</v>
       </c>
       <c r="I6" t="n">
-        <v>-93300.61205766635</v>
+        <v>-93323.83639704896</v>
       </c>
       <c r="J6" t="n">
-        <v>-204315.0774026563</v>
+        <v>-204338.3017420391</v>
       </c>
       <c r="K6" t="n">
-        <v>-93300.61205766632</v>
+        <v>-146992.1634604311</v>
       </c>
       <c r="L6" t="n">
-        <v>-111835.2411086335</v>
+        <v>-120615.4147990708</v>
       </c>
       <c r="M6" t="n">
-        <v>-232181.3955226761</v>
+        <v>-240400.6748626443</v>
       </c>
       <c r="N6" t="n">
-        <v>-170472.1743982038</v>
+        <v>-102822.9741247923</v>
       </c>
       <c r="O6" t="n">
         <v>-102822.9741247923</v>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="M2" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O2" t="n">
         <v>16.23571033874737</v>
       </c>
       <c r="P2" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="3">
@@ -26790,13 +26790,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>632.8234408380853</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1002.059021827336</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
         <v>1278.260503384745</v>
@@ -26808,7 +26808,7 @@
         <v>1278.260503384745</v>
       </c>
       <c r="I4" t="n">
-        <v>1278.260503384746</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="J4" t="n">
         <v>1278.260503384745</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4.82703532317577e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874733</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>4.47176395529572e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27012,16 +27012,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>208.527583317981</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>34.69176576977165</v>
       </c>
       <c r="E4" t="n">
-        <v>577.7631643072318</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
-        <v>276.2014815574091</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201035</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>208.527583317981</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>34.69176576977165</v>
       </c>
       <c r="M4" t="n">
-        <v>519.0864568702098</v>
+        <v>552.0685893398661</v>
       </c>
       <c r="N4" t="n">
-        <v>276.2014815574089</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>4.82703532317577e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27258,16 +27258,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>208.527583317981</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>34.69176576977165</v>
       </c>
       <c r="M4" t="n">
-        <v>577.7631643072318</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
-        <v>276.2014815574091</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>5.14113987318342</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>283.8896042029403</v>
+        <v>201.8652719351363</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>99.35319942466796</v>
       </c>
       <c r="Y4" t="n">
-        <v>189.3830808995498</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>332.5699797301295</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>7.254829457195569</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>63.46483518791501</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>66.78208019345746</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27789,7 +27789,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27831,16 +27831,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>195.5745586731002</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27856,10 +27856,10 @@
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>11.64838566658631</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>188.2245344746683</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>191.7605002297717</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>229.4233680290249</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28570,7 +28570,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>-1.350599632132798e-12</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C34" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D34" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E34" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F34" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G34" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H34" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I34" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="J34" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="K34" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="L34" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="M34" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="N34" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="O34" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="P34" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Q34" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="R34" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="S34" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T34" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U34" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V34" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W34" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X34" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y34" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I35" t="n">
         <v>0.4126214791313976</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="J37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="K37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="L37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="M37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="N37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="O37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="P37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="R37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="S37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="J40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="K40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="L40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="S40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="41">
@@ -30639,7 +30639,7 @@
         <v>16.23571033874737</v>
       </c>
       <c r="J43" t="n">
-        <v>16.23571033874771</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="K43" t="n">
         <v>16.23571033874737</v>
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="J46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="K46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="L46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="N46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="R46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="S46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
   </sheetData>
@@ -34708,16 +34708,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="O2" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34781,10 +34781,10 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
-        <v>358.9284720888816</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34857,22 +34857,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>371.7091627680287</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>150.1941962971705</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>77.54539097102617</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>632.8234408380853</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>632.8234408380854</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35012,13 +35012,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>632.8234408380853</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>28.49579817779727</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>119.9805436479969</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,7 +35170,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -35179,19 +35179,19 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35252,7 +35252,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35261,7 +35261,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>203.2851159259061</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,19 +35407,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>1002.059021827336</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>973.5503391663901</v>
+        <v>395.0015281256929</v>
       </c>
       <c r="N11" t="n">
-        <v>1002.059021827336</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35431,7 +35431,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35504,7 +35504,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080383</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35580,7 +35580,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35653,10 +35653,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N14" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35726,22 +35726,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35887,16 +35887,16 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>1050.67235666819</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458546</v>
@@ -35963,22 +35963,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471158</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36358,16 +36358,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352478</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36437,7 +36437,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36522,13 +36522,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
@@ -36601,10 +36601,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37075,10 +37075,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37148,7 +37148,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37163,7 +37163,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>103.689937777828</v>
+        <v>103.6899377778281</v>
       </c>
       <c r="K34" t="n">
         <v>293.7695028348439</v>
       </c>
       <c r="L34" t="n">
-        <v>438.6699343467888</v>
+        <v>438.669934346789</v>
       </c>
       <c r="M34" t="n">
         <v>480.3608287033061</v>
@@ -37239,13 +37239,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O34" t="n">
-        <v>440.1440428900416</v>
+        <v>440.1440428900419</v>
       </c>
       <c r="P34" t="n">
-        <v>367.2527749552542</v>
+        <v>367.2527749552546</v>
       </c>
       <c r="Q34" t="n">
-        <v>186.127402120901</v>
+        <v>186.1274021209015</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37312,7 +37312,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>81.9345526149732</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -37321,13 +37321,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>81.93455261497184</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37476,13 +37476,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O37" t="n">
-        <v>440.1440428900416</v>
+        <v>440.1440428900421</v>
       </c>
       <c r="P37" t="n">
-        <v>367.2527749552542</v>
+        <v>367.2527749552546</v>
       </c>
       <c r="Q37" t="n">
-        <v>186.127402120901</v>
+        <v>186.1274021209015</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>350.7230603926101</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
@@ -37549,7 +37549,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>81.93455261497138</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37713,13 +37713,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O40" t="n">
-        <v>440.1440428900421</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P40" t="n">
-        <v>367.2527749552546</v>
+        <v>367.2527749552542</v>
       </c>
       <c r="Q40" t="n">
-        <v>186.1274021209015</v>
+        <v>186.1274021209006</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37786,22 +37786,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>569.0937863928461</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.862691669754</v>
+        <v>81.93455261497093</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>103.6899377778284</v>
+        <v>103.689937777828</v>
       </c>
       <c r="K43" t="n">
         <v>293.7695028348439</v>
@@ -37944,19 +37944,19 @@
         <v>438.6699343467889</v>
       </c>
       <c r="M43" t="n">
-        <v>480.360828703306</v>
+        <v>480.3608287033061</v>
       </c>
       <c r="N43" t="n">
         <v>462.9617741343479</v>
       </c>
       <c r="O43" t="n">
-        <v>440.1440428900419</v>
+        <v>440.1440428900421</v>
       </c>
       <c r="P43" t="n">
-        <v>367.2527749552542</v>
+        <v>367.2527749552546</v>
       </c>
       <c r="Q43" t="n">
-        <v>186.127402120901</v>
+        <v>186.1274021209015</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38023,7 +38023,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>81.93455261497229</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -38032,13 +38032,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>81.93455261497093</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,10 +38090,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38102,22 +38102,22 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>460.4563671621851</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>1219.583795947723</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>103.6899377778278</v>
+        <v>103.689937777828</v>
       </c>
       <c r="K46" t="n">
         <v>293.7695028348439</v>
@@ -38187,13 +38187,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O46" t="n">
-        <v>440.1440428900419</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P46" t="n">
         <v>367.2527749552542</v>
       </c>
       <c r="Q46" t="n">
-        <v>186.1274021209015</v>
+        <v>186.127402120901</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
